--- a/biology/Botanique/Owen_Johnson/Owen_Johnson.xlsx
+++ b/biology/Botanique/Owen_Johnson/Owen_Johnson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Owen Charles Johnson est un dendrologue qui a passé les vingt dernières années à étudier et à enregistrer plus de 60 000 arbres au Royaume-Uni. Il a acquis des compétences uniques en matière d'identification sur le terrain.
-Il a grandi à Hastings près d'Alexandra Park[1].
-Il a obtenu son diplôme de littérature anglaise à la Durham University en 1988[2].
-Il a préparé avec succès un doctorat traitant de la poésie de Ted Hughes[1].
-Il est un des adeptes du Tree Register où il a compilé et écrit Champion Trees of Britain and Ireland (2003)[1], The Sussex Tree Book (1998)[3] et le  Collins Tree Guide , avec des illustrations de David More[4].
+Il a grandi à Hastings près d'Alexandra Park.
+Il a obtenu son diplôme de littérature anglaise à la Durham University en 1988.
+Il a préparé avec succès un doctorat traitant de la poésie de Ted Hughes.
+Il est un des adeptes du Tree Register où il a compilé et écrit Champion Trees of Britain and Ireland (2003), The Sussex Tree Book (1998) et le  Collins Tree Guide , avec des illustrations de David More.
 Naturaliste passionné, il gère une réserve naturelle près de chez lui, à St Leonards-on-Sea, pour le Sussex Wildlife Trust. Il a également été chef de file bénévole pour des tâches de conservation hebdomadaires de The Conservation Volunteers depuis 1995.
 </t>
         </is>
